--- a/BPA/lab4/MEM.xlsx
+++ b/BPA/lab4/MEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\ITMO\BPA\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C103ACB-4022-4B66-B544-D5D042203EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E3AC7B-5772-44DC-92D7-5116241E390D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{B56C8F3D-A2A4-4958-9147-531075A63ED1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B56C8F3D-A2A4-4958-9147-531075A63ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="218">
   <si>
     <t>адрес</t>
   </si>
@@ -357,15 +357,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>AC(=0) -&gt; D</t>
-  </si>
-  <si>
-    <t>X -&gt; AC</t>
-  </si>
-  <si>
-    <t>AC-1 -&gt; AC</t>
-  </si>
-  <si>
     <t>AC -&gt; -(SP)</t>
   </si>
   <si>
@@ -390,12 +381,6 @@
     <t>AC + D -&gt; AC</t>
   </si>
   <si>
-    <t>Z -&gt; AC</t>
-  </si>
-  <si>
-    <t>AC - 1 -&gt; AC</t>
-  </si>
-  <si>
     <t>AC - X -&gt; AC</t>
   </si>
   <si>
@@ -439,13 +424,277 @@
   </si>
   <si>
     <t>JUMP (IP+1)</t>
+  </si>
+  <si>
+    <t>Загрузка в АС из стека</t>
+  </si>
+  <si>
+    <t>Переход, если АС &lt; 6D0</t>
+  </si>
+  <si>
+    <t>AC + значение из стека</t>
+  </si>
+  <si>
+    <t>АС + 6D1 -&gt; AC</t>
+  </si>
+  <si>
+    <t>Запись AC в стек</t>
+  </si>
+  <si>
+    <t>Загрузка 6D0 -&gt; AC</t>
+  </si>
+  <si>
+    <t>(SP)+ -&gt; IP</t>
+  </si>
+  <si>
+    <t>IP + 1 -&gt; IP</t>
+  </si>
+  <si>
+    <t>Если AC = 0, переход на  6С6</t>
+  </si>
+  <si>
+    <t>Если AC &gt; 0, переход на 6CD</t>
+  </si>
+  <si>
+    <t>константа W</t>
+  </si>
+  <si>
+    <t>константа K</t>
+  </si>
+  <si>
+    <t>Если АС &lt; W, переход 6CD</t>
+  </si>
+  <si>
+    <t>Если AC = 0, переход на  6CD</t>
+  </si>
+  <si>
+    <t>Умножение на 2</t>
+  </si>
+  <si>
+    <t>AC + значение аргумента</t>
+  </si>
+  <si>
+    <t>АС + K -&gt; AC</t>
+  </si>
+  <si>
+    <t>Загрузка W -&gt; AC</t>
+  </si>
+  <si>
+    <t>=84</t>
+  </si>
+  <si>
+    <t>=-1095</t>
+  </si>
+  <si>
+    <t>Загрузка аргумента в АС из стека</t>
+  </si>
+  <si>
+    <t>Установление знаков результата операции АС - 6D0</t>
+  </si>
+  <si>
+    <t>Очистка D</t>
+  </si>
+  <si>
+    <t>Загрузка X - 1 -&gt; AC</t>
+  </si>
+  <si>
+    <t>Загрузка Z - 1 -&gt; AC</t>
+  </si>
+  <si>
+    <t>Вызов функции F(X-1) и загрузка результата в AC</t>
+  </si>
+  <si>
+    <t>Вызов функции F(Y) и загрузка результата в AC</t>
+  </si>
+  <si>
+    <t>Вызов функции F(Z-1) и загрузка результата в AC</t>
+  </si>
+  <si>
+    <t>Загрузка в D разницы F(x-1) + 1 и  D(=0), сохранение D= F(x-1) + 1</t>
+  </si>
+  <si>
+    <t>Загрузка в D разницы F(z) и  D, сохранение D= F(z) - ((F(y-1) + 1) + (F(x-1) + 1))</t>
+  </si>
+  <si>
+    <t>Загрузка в D cуммы F(y-1) + 1 и  D, сохранение D= (F(y-1) + 1) + (F(x-1) + 1)</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>NZVC</t>
+  </si>
+  <si>
+    <t>Новый код</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>02C7</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>001A</t>
+  </si>
+  <si>
+    <t>0E0A</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>02CA</t>
+  </si>
+  <si>
+    <t>0E09</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>7FF</t>
+  </si>
+  <si>
+    <t>02CB</t>
+  </si>
+  <si>
+    <t>7FE</t>
+  </si>
+  <si>
+    <t>02CD</t>
+  </si>
+  <si>
+    <t>06C4</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>06CF</t>
+  </si>
+  <si>
+    <t>02CE</t>
+  </si>
+  <si>
+    <t>FBBA</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>000F</t>
+  </si>
+  <si>
+    <t>02D2</t>
+  </si>
+  <si>
+    <t>02D4</t>
+  </si>
+  <si>
+    <t>02D5</t>
+  </si>
+  <si>
+    <t>000C</t>
+  </si>
+  <si>
+    <t>F774</t>
+  </si>
+  <si>
+    <t>000B</t>
+  </si>
+  <si>
+    <t>0EF0</t>
+  </si>
+  <si>
+    <t>02D9</t>
+  </si>
+  <si>
+    <t>0EEF</t>
+  </si>
+  <si>
+    <t>02DA</t>
+  </si>
+  <si>
+    <t>02DC</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>EDAF</t>
+  </si>
+  <si>
+    <t>02DF</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Выполняемая программа</t>
+  </si>
+  <si>
+    <t>Содержимое регистров процессора после выполнения команды</t>
+  </si>
+  <si>
+    <t>Ячейка, содержимое которой изменилось после выполнения команды</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +710,37 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -470,7 +750,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -506,11 +786,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -519,6 +892,97 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -833,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40867C1B-8937-452B-BE45-C795B44028A8}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="46" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,13 +1308,14 @@
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="3" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="3"/>
     <col min="9" max="9" width="16" style="3" customWidth="1"/>
     <col min="10" max="10" width="33.6640625" style="3" customWidth="1"/>
+    <col min="14" max="27" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -884,7 +1349,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>41</v>
@@ -899,7 +1367,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -907,10 +1375,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>56</v>
@@ -922,10 +1390,23 @@
         <v>94</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+    </row>
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -933,10 +1414,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>57</v>
@@ -947,11 +1428,24 @@
       <c r="I4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="17"/>
+    </row>
+    <row r="5" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -959,7 +1453,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>58</v>
@@ -970,11 +1467,41 @@
       <c r="I5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="9"/>
+      <c r="N5" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z5" s="9"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="19"/>
+    </row>
+    <row r="6" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -982,8 +1509,9 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="G6" s="3" t="s">
         <v>59</v>
       </c>
@@ -993,11 +1521,64 @@
       <c r="I6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="N6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="29"/>
+    </row>
+    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
@@ -1005,10 +1586,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>60</v>
@@ -1019,11 +1600,43 @@
       <c r="I7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="N7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1034,7 +1647,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>61</v>
@@ -1045,11 +1658,49 @@
       <c r="I8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="N8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -1057,7 +1708,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>62</v>
@@ -1068,11 +1722,44 @@
       <c r="I9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1080,7 +1767,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>63</v>
@@ -1091,11 +1781,42 @@
       <c r="I10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="4"/>
+      <c r="N10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -1103,7 +1824,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>64</v>
@@ -1114,11 +1838,48 @@
       <c r="I11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="4"/>
+      <c r="N11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1126,7 +1887,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>65</v>
@@ -1138,10 +1902,49 @@
         <v>99</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -1149,7 +1952,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>66</v>
@@ -1160,11 +1966,44 @@
       <c r="I13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -1174,6 +2013,9 @@
       <c r="C14" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="G14" s="3" t="s">
         <v>67</v>
       </c>
@@ -1183,17 +2025,54 @@
       <c r="I14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="4"/>
+      <c r="N14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>68</v>
       </c>
@@ -1203,17 +2082,54 @@
       <c r="I15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="4"/>
+      <c r="N15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>69</v>
       </c>
@@ -1223,11 +2139,45 @@
       <c r="I16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="N16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G17" s="3" t="s">
         <v>70</v>
       </c>
@@ -1237,11 +2187,49 @@
       <c r="I17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="N17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G18" s="3" t="s">
         <v>71</v>
       </c>
@@ -1251,11 +2239,43 @@
       <c r="I18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="N18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G19" s="3" t="s">
         <v>72</v>
       </c>
@@ -1265,11 +2285,45 @@
       <c r="I19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
       <c r="G20" s="3" t="s">
         <v>73</v>
       </c>
@@ -1279,11 +2333,42 @@
       <c r="I20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="9"/>
+      <c r="N20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1293,11 +2378,44 @@
       <c r="I21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G22" s="3" t="s">
         <v>75</v>
       </c>
@@ -1307,11 +2425,48 @@
       <c r="I22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="4"/>
+      <c r="N22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G23" s="3" t="s">
         <v>76</v>
       </c>
@@ -1321,11 +2476,42 @@
       <c r="I23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="4"/>
+      <c r="N23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G24" s="3" t="s">
         <v>77</v>
       </c>
@@ -1335,11 +2521,50 @@
       <c r="I24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G25" s="3" t="s">
         <v>78</v>
       </c>
@@ -1349,11 +2574,48 @@
       <c r="I25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="9"/>
+      <c r="N25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G26" s="3" t="s">
         <v>79</v>
       </c>
@@ -1366,32 +2628,164 @@
       <c r="J26" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="N26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G27" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="N27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G28" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="N28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G29" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="N29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G30" s="3" t="s">
         <v>90</v>
       </c>
@@ -1401,8 +2795,1313 @@
       <c r="I30" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="N30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="N31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="N32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="N38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G57" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G60" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G61" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G63" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AE4:AM4"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN4:AO6"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K16:K18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BPA/lab4/MEM.xlsx
+++ b/BPA/lab4/MEM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\ITMO\BPA\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E3AC7B-5772-44DC-92D7-5116241E390D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BA0B0F-378A-43E6-A78A-C003778C7B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B56C8F3D-A2A4-4958-9147-531075A63ED1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="225">
   <si>
     <t>адрес</t>
   </si>
@@ -480,9 +480,6 @@
     <t>Загрузка W -&gt; AC</t>
   </si>
   <si>
-    <t>=84</t>
-  </si>
-  <si>
     <t>=-1095</t>
   </si>
   <si>
@@ -561,27 +558,15 @@
     <t>0000</t>
   </si>
   <si>
-    <t>004</t>
-  </si>
-  <si>
     <t>001A</t>
   </si>
   <si>
-    <t>0E0A</t>
-  </si>
-  <si>
     <t>0018</t>
   </si>
   <si>
     <t>02CA</t>
   </si>
   <si>
-    <t>0E09</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
     <t>0001</t>
   </si>
   <si>
@@ -606,9 +591,6 @@
     <t>0002</t>
   </si>
   <si>
-    <t>009</t>
-  </si>
-  <si>
     <t>1001</t>
   </si>
   <si>
@@ -621,9 +603,6 @@
     <t>FBBA</t>
   </si>
   <si>
-    <t>008</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
@@ -648,21 +627,12 @@
     <t>000C</t>
   </si>
   <si>
-    <t>F774</t>
-  </si>
-  <si>
     <t>000B</t>
   </si>
   <si>
-    <t>0EF0</t>
-  </si>
-  <si>
     <t>02D9</t>
   </si>
   <si>
-    <t>0EEF</t>
-  </si>
-  <si>
     <t>02DA</t>
   </si>
   <si>
@@ -672,15 +642,9 @@
     <t>0004</t>
   </si>
   <si>
-    <t>EDAF</t>
-  </si>
-  <si>
     <t>02DF</t>
   </si>
   <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>Выполняемая программа</t>
   </si>
   <si>
@@ -688,6 +652,63 @@
   </si>
   <si>
     <t>Ячейка, содержимое которой изменилось после выполнения команды</t>
+  </si>
+  <si>
+    <t>64C8</t>
+  </si>
+  <si>
+    <t>64C7</t>
+  </si>
+  <si>
+    <t>FFFB</t>
+  </si>
+  <si>
+    <t>06C5</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>06C7</t>
+  </si>
+  <si>
+    <t>06C8</t>
+  </si>
+  <si>
+    <t>06C9</t>
+  </si>
+  <si>
+    <t>FFF6</t>
+  </si>
+  <si>
+    <t>FFF1</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>06CE</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>FC30</t>
+  </si>
+  <si>
+    <t>E8FE</t>
+  </si>
+  <si>
+    <t>E8FD</t>
+  </si>
+  <si>
+    <t>96F1</t>
+  </si>
+  <si>
+    <t>=132</t>
   </si>
 </sst>
 </file>
@@ -883,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -892,30 +913,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -926,62 +929,89 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40867C1B-8937-452B-BE45-C795B44028A8}">
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="46" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="AJ28" sqref="AJ28"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,7 +1342,7 @@
     <col min="7" max="8" width="8.88671875" style="3"/>
     <col min="9" max="9" width="16" style="3" customWidth="1"/>
     <col min="10" max="10" width="33.6640625" style="3" customWidth="1"/>
-    <col min="14" max="27" width="8.88671875" style="3"/>
+    <col min="14" max="42" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1390,21 +1420,8 @@
         <v>94</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
+        <v>151</v>
+      </c>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1428,22 +1445,22 @@
       <c r="I4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>153</v>
+      <c r="J4" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="AC4" s="10"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="17"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="30"/>
     </row>
     <row r="5" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1455,7 +1472,7 @@
       <c r="C5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="21" t="s">
         <v>142</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1467,39 +1484,33 @@
       <c r="I5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="N5" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z5" s="9"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="20"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="32"/>
     </row>
     <row r="6" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -1511,7 +1522,7 @@
       <c r="C6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="21"/>
       <c r="G6" s="3" t="s">
         <v>59</v>
       </c>
@@ -1521,62 +1532,36 @@
       <c r="I6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="N6" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="29"/>
+      <c r="J6" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="34"/>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1600,41 +1585,8 @@
       <c r="I7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="N7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1658,49 +1610,28 @@
       <c r="I8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="N8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="AC8" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN8" s="20"/>
+    </row>
+    <row r="9" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -1722,41 +1653,44 @@
       <c r="I9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>174</v>
+      <c r="J9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC9" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD9" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE9" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI9" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ9" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK9" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL9" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM9" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN9" s="17" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
@@ -1781,39 +1715,36 @@
       <c r="I10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="N10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>182</v>
+      <c r="J10" s="22"/>
+      <c r="AC10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
@@ -1838,45 +1769,36 @@
       <c r="I11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="N11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>180</v>
+      <c r="J11" s="22"/>
+      <c r="AC11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
@@ -1904,44 +1826,41 @@
       <c r="J12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>186</v>
+      <c r="AC12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
@@ -1966,41 +1885,38 @@
       <c r="I13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>182</v>
+      <c r="J13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
@@ -2025,39 +1941,36 @@
       <c r="I14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="N14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>182</v>
+      <c r="J14" s="22"/>
+      <c r="AC14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
@@ -2071,7 +1984,7 @@
         <v>140</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>68</v>
@@ -2082,39 +1995,42 @@
       <c r="I15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="N15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>182</v>
+      <c r="J15" s="22"/>
+      <c r="AC15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
@@ -2128,7 +2044,7 @@
         <v>141</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>69</v>
@@ -2139,45 +2055,48 @@
       <c r="I16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="N16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="J16" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="AC16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G17" s="3" t="s">
         <v>70</v>
       </c>
@@ -2187,49 +2106,40 @@
       <c r="I17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="N17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="AC17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G18" s="3" t="s">
         <v>71</v>
       </c>
@@ -2239,43 +2149,40 @@
       <c r="I18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="N18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="AC18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G19" s="3" t="s">
         <v>72</v>
       </c>
@@ -2285,45 +2192,42 @@
       <c r="I19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="3" t="s">
+      <c r="J19" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
+      <c r="AK19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
       <c r="G20" s="3" t="s">
         <v>73</v>
       </c>
@@ -2333,42 +2237,39 @@
       <c r="I20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="N20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="J20" s="20"/>
+      <c r="AC20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G21" s="3" t="s">
         <v>74</v>
       </c>
@@ -2378,44 +2279,47 @@
       <c r="I21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="J21" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G22" s="3" t="s">
         <v>75</v>
       </c>
@@ -2425,48 +2329,39 @@
       <c r="I22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="N22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="J22" s="22"/>
+      <c r="AC22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G23" s="3" t="s">
         <v>76</v>
       </c>
@@ -2476,42 +2371,39 @@
       <c r="I23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="N23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="W23" s="3" t="s">
+      <c r="J23" s="22"/>
+      <c r="AC23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="AK23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G24" s="3" t="s">
         <v>77</v>
       </c>
@@ -2521,50 +2413,41 @@
       <c r="I24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="J24" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G25" s="3" t="s">
         <v>78</v>
       </c>
@@ -2574,48 +2457,39 @@
       <c r="I25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="N25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R25" s="3" t="s">
+      <c r="J25" s="20"/>
+      <c r="AC25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL25" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G26" s="3" t="s">
         <v>79</v>
       </c>
@@ -2628,164 +2502,170 @@
       <c r="J26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="T26" s="3" t="s">
+      <c r="AC26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL26" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="AM26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G27" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3" t="s">
+      <c r="AC27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL27" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G28" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T28" s="3" t="s">
+      <c r="AC28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL28" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="U28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="AM28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G29" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="AM29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="3:40" x14ac:dyDescent="0.3">
       <c r="G30" s="3" t="s">
         <v>90</v>
       </c>
@@ -2795,152 +2675,134 @@
       <c r="I30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S30" s="3" t="s">
+      <c r="AC30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK30" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="AC31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK31" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="AC32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ32" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK32" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T30" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="N31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="N32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AI33" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2812,7 @@
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2965,41 +2827,38 @@
       <c r="J34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL34" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -3009,8 +2868,8 @@
       <c r="C35" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>150</v>
+      <c r="D35" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>41</v>
@@ -3024,47 +2883,38 @@
       <c r="J35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ35" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL35" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -3074,7 +2924,7 @@
       <c r="C36" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>119</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -3087,43 +2937,40 @@
         <v>94</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH36" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI36" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ36" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK36" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL36" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
@@ -3133,7 +2980,7 @@
       <c r="C37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -3145,44 +2992,41 @@
       <c r="I37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="V37" s="3" t="s">
+      <c r="J37" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH37" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="W37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X37" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AI37" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL37" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
@@ -3192,8 +3036,8 @@
       <c r="C38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>151</v>
+      <c r="D38" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>58</v>
@@ -3204,48 +3048,39 @@
       <c r="I38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="N38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J38" s="20"/>
+      <c r="AC38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI38" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ38" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK38" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL38" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -3255,7 +3090,7 @@
       <c r="C39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="6" t="s">
         <v>131</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -3270,47 +3105,38 @@
       <c r="J39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z39" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL39" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -3320,7 +3146,7 @@
       <c r="C40" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -3335,41 +3161,44 @@
       <c r="J40" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH40" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK40" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN40" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -3379,7 +3208,7 @@
       <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -3394,41 +3223,38 @@
       <c r="J41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH41" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK41" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL41" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
@@ -3438,7 +3264,7 @@
       <c r="C42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>132</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -3453,41 +3279,38 @@
       <c r="J42" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL42" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -3497,7 +3320,7 @@
       <c r="C43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>133</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -3512,41 +3335,38 @@
       <c r="J43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI43" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK43" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL43" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -3556,7 +3376,7 @@
       <c r="C44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="6" t="s">
         <v>137</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -3571,47 +3391,38 @@
       <c r="J44" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z44" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ44" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK44" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL44" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -3621,7 +3432,7 @@
       <c r="C45" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="6" t="s">
         <v>135</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -3636,41 +3447,44 @@
       <c r="J45" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH45" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK45" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN45" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -3680,7 +3494,7 @@
       <c r="C46" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="6" t="s">
         <v>134</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -3695,41 +3509,38 @@
       <c r="J46" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R46" s="3" t="s">
+      <c r="AC46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH46" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ46" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK46" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL46" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -3739,7 +3550,7 @@
       <c r="C47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -3754,41 +3565,38 @@
       <c r="J47" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AC47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ47" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL47" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -3810,47 +3618,44 @@
       <c r="J48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH48" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ48" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK48" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL48" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN48" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -3872,41 +3677,44 @@
       <c r="J49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG49" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI49" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK49" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM49" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN49" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G50" s="3" t="s">
         <v>70</v>
       </c>
@@ -3919,8 +3727,38 @@
       <c r="J50" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH50" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI50" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK50" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL50" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G51" s="3" t="s">
         <v>71</v>
       </c>
@@ -3933,8 +3771,38 @@
       <c r="J51" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ51" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK51" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL51" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G52" s="3" t="s">
         <v>72</v>
       </c>
@@ -3944,11 +3812,41 @@
       <c r="I52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J52" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI52" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK52" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL52" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G53" s="3" t="s">
         <v>73</v>
       </c>
@@ -3958,9 +3856,39 @@
       <c r="I53" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J53" s="20"/>
+      <c r="AC53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI53" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ53" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK53" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL53" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G54" s="3" t="s">
         <v>74</v>
       </c>
@@ -3973,8 +3901,38 @@
       <c r="J54" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI54" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK54" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL54" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G55" s="3" t="s">
         <v>75</v>
       </c>
@@ -3987,8 +3945,38 @@
       <c r="J55" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ55" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL55" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G56" s="3" t="s">
         <v>76</v>
       </c>
@@ -4001,8 +3989,44 @@
       <c r="J56" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG56" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ56" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL56" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM56" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G57" s="3" t="s">
         <v>77</v>
       </c>
@@ -4015,8 +4039,38 @@
       <c r="J57" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG57" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH57" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI57" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL57" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G58" s="3" t="s">
         <v>78</v>
       </c>
@@ -4029,8 +4083,38 @@
       <c r="J58" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI58" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL58" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G59" s="3" t="s">
         <v>79</v>
       </c>
@@ -4043,24 +4127,120 @@
       <c r="J59" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH59" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI59" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ59" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK59" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL59" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G60" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH60" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ60" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK60" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN60" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G61" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE61" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI61" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ61" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK61" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL61" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G62" s="3" t="s">
         <v>91</v>
       </c>
@@ -4068,7 +4248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G63" s="3" t="s">
         <v>90</v>
       </c>
@@ -4080,7 +4260,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AL8"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="AE4:AM4"/>
     <mergeCell ref="AE5:AM5"/>
     <mergeCell ref="AN4:AO6"/>
@@ -4088,19 +4284,6 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="AE6:AM6"/>
     <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K16:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
